--- a/nablarch-handson-app-web/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
+++ b/nablarch-handson-app-web/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="23565" windowHeight="5190" tabRatio="766"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="23565" windowHeight="5190" tabRatio="766" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -789,10 +789,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>302</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>// DBが更新されていること</t>
     <rPh sb="6" eb="8">
       <t>コウシン</t>
@@ -1110,12 +1106,16 @@
     <t>イッパンイチ</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>302</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="メイリオ"/>
@@ -1166,12 +1166,6 @@
     <font>
       <sz val="9"/>
       <color indexed="8"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="17"/>
-      <color indexed="9"/>
       <name val="メイリオ"/>
       <family val="3"/>
     </font>
@@ -1345,8 +1339,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1384,7 +1378,7 @@
     <xf numFmtId="49" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -1462,11 +1456,16 @@
       <rgbColor rgb="001A1A1A"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1540,6 +1539,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1574,6 +1574,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1749,15 +1750,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="9" width="19" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" style="1" customWidth="1"/>
@@ -1769,7 +1768,7 @@
     <col min="19" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="26" customFormat="1" ht="27">
+    <row r="1" spans="1:16" s="26" customFormat="1" ht="27" x14ac:dyDescent="0.6">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -1783,123 +1782,123 @@
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
     </row>
-    <row r="2" spans="1:16" s="26" customFormat="1">
+    <row r="2" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="19" customFormat="1">
+    <row r="3" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:16" s="19" customFormat="1">
+    <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="C4" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="D4" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="E4" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="F4" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="G4" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="H4" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="I4" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="39" t="s">
+    </row>
+    <row r="5" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="19" customFormat="1">
-      <c r="A5" s="35" t="s">
+      <c r="B5" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="E5" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="F5" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="G5" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="H5" s="42" t="s">
         <v>195</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>196</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="19" customFormat="1" ht="15">
+    <row r="6" spans="1:16" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
     </row>
-    <row r="7" spans="1:16" s="19" customFormat="1">
+    <row r="7" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:16" s="19" customFormat="1">
+    <row r="8" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="39" t="s">
         <v>199</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>200</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:16" s="19" customFormat="1">
+    <row r="9" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="31" t="s">
         <v>202</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>203</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:16" s="19" customFormat="1">
+    <row r="10" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>61</v>
       </c>
@@ -1919,7 +1918,7 @@
       <c r="O11" s="26"/>
       <c r="P11" s="26"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
         <v>23</v>
       </c>
@@ -1969,12 +1968,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="39" t="s">
         <v>63</v>
       </c>
@@ -1982,7 +1981,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
         <v>69</v>
       </c>
@@ -1990,12 +1989,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
         <v>62</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
         <v>1</v>
       </c>
@@ -2030,14 +2029,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
@@ -2048,7 +2045,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2307,7 +2304,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2319,7 +2316,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -2350,12 +2347,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -2372,10 +2369,10 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -2635,7 +2632,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -2895,7 +2892,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -3157,9 +3154,9 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -3419,7 +3416,7 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="12" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -3678,7 +3675,7 @@
       <c r="IT12" s="5"/>
       <c r="IU12" s="5"/>
     </row>
-    <row r="13" spans="1:256" ht="15.75" customHeight="1">
+    <row r="13" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
@@ -3687,7 +3684,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:256" ht="15">
+    <row r="14" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
         <v>8</v>
       </c>
@@ -3695,7 +3692,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:256" ht="15">
+    <row r="15" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>1</v>
       </c>
@@ -3703,7 +3700,7 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
@@ -3962,9 +3959,9 @@
       <c r="IT17" s="5"/>
       <c r="IU17" s="5"/>
     </row>
-    <row r="18" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -4232,15 +4229,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
@@ -4254,7 +4249,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -4513,7 +4508,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4525,7 +4520,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -4556,12 +4551,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -4581,7 +4576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -4841,7 +4836,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -5101,7 +5096,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -5109,7 +5104,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -5365,7 +5360,7 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>114</v>
       </c>
@@ -5373,7 +5368,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -5629,9 +5624,9 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -5889,7 +5884,7 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="26" customFormat="1">
+    <row r="12" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>74</v>
       </c>
@@ -5903,7 +5898,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:256" s="26" customFormat="1">
+    <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
         <v>94</v>
       </c>
@@ -5953,7 +5948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="26" customFormat="1">
+    <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>98</v>
       </c>
@@ -6003,7 +5998,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="26" customFormat="1">
+    <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>95</v>
       </c>
@@ -6053,7 +6048,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5">
+    <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -6312,7 +6307,7 @@
       <c r="IT17" s="5"/>
       <c r="IU17" s="5"/>
     </row>
-    <row r="18" spans="1:255" ht="15.75" customHeight="1">
+    <row r="18" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
@@ -6321,7 +6316,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:255" ht="15">
+    <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>8</v>
       </c>
@@ -6329,7 +6324,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:255" ht="15">
+    <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="34">
         <v>1</v>
       </c>
@@ -6337,7 +6332,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5">
+    <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -6596,17 +6591,17 @@
       <c r="IT22" s="5"/>
       <c r="IU22" s="5"/>
     </row>
-    <row r="23" spans="1:255">
+    <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:255">
+    <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:255">
+    <row r="25" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>42</v>
       </c>
@@ -6614,49 +6609,49 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:255">
+    <row r="26" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="31"/>
     </row>
-    <row r="27" spans="1:255">
+    <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="31"/>
     </row>
-    <row r="28" spans="1:255">
+    <row r="28" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="31"/>
     </row>
-    <row r="29" spans="1:255">
+    <row r="29" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="35"/>
     </row>
-    <row r="30" spans="1:255">
+    <row r="30" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="32"/>
     </row>
-    <row r="31" spans="1:255">
+    <row r="31" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
         <v>82</v>
       </c>
       <c r="B31" s="32"/>
     </row>
-    <row r="32" spans="1:255">
+    <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="31"/>
     </row>
-    <row r="33" spans="1:256" s="1" customFormat="1">
+    <row r="33" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
         <v>84</v>
       </c>
@@ -6914,7 +6909,7 @@
       <c r="IU33" s="19"/>
       <c r="IV33" s="19"/>
     </row>
-    <row r="34" spans="1:256" s="1" customFormat="1">
+    <row r="34" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
         <v>85</v>
       </c>
@@ -7172,7 +7167,7 @@
       <c r="IU34" s="19"/>
       <c r="IV34" s="19"/>
     </row>
-    <row r="35" spans="1:256" s="1" customFormat="1">
+    <row r="35" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>122</v>
       </c>
@@ -7432,7 +7427,7 @@
       <c r="IU35" s="19"/>
       <c r="IV35" s="19"/>
     </row>
-    <row r="36" spans="1:256" s="1" customFormat="1">
+    <row r="36" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
         <v>87</v>
       </c>
@@ -7690,7 +7685,7 @@
       <c r="IU36" s="19"/>
       <c r="IV36" s="19"/>
     </row>
-    <row r="37" spans="1:256" s="1" customFormat="1">
+    <row r="37" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>120</v>
       </c>
@@ -7950,17 +7945,17 @@
       <c r="IU37" s="19"/>
       <c r="IV37" s="19"/>
     </row>
-    <row r="39" spans="1:256">
+    <row r="39" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:256">
+    <row r="40" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:256">
+    <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
         <v>42</v>
       </c>
@@ -7968,7 +7963,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:256">
+    <row r="42" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
         <v>96</v>
       </c>
@@ -7976,7 +7971,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:256">
+    <row r="43" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>44</v>
       </c>
@@ -7984,7 +7979,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:256">
+    <row r="44" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
         <v>105</v>
       </c>
@@ -7992,7 +7987,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:256">
+    <row r="45" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>47</v>
       </c>
@@ -8000,15 +7995,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:256">
+    <row r="46" spans="1:256" x14ac:dyDescent="0.35">
       <c r="B46" s="45"/>
     </row>
-    <row r="47" spans="1:256">
+    <row r="47" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:256">
+    <row r="48" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A48" s="33" t="s">
         <v>42</v>
       </c>
@@ -8016,7 +8011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
         <v>96</v>
       </c>
@@ -8024,7 +8019,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
         <v>44</v>
       </c>
@@ -8032,7 +8027,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
         <v>105</v>
       </c>
@@ -8040,7 +8035,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
         <v>47</v>
       </c>
@@ -8048,17 +8043,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="33" t="s">
         <v>42</v>
       </c>
@@ -8066,7 +8061,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
         <v>44</v>
       </c>
@@ -8074,7 +8069,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
         <v>45</v>
       </c>
@@ -8082,7 +8077,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
         <v>46</v>
       </c>
@@ -8090,7 +8085,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
         <v>49</v>
       </c>
@@ -8098,61 +8093,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B61" s="32"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
         <v>48</v>
       </c>
       <c r="B62" s="32"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
         <v>50</v>
       </c>
       <c r="B63" s="31"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="31"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B65" s="31"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="31" t="s">
         <v>53</v>
       </c>
       <c r="B66" s="31"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="31" t="s">
         <v>54</v>
       </c>
       <c r="B67" s="31"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B68" s="31"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B69" s="31"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="31" t="s">
         <v>57</v>
       </c>
@@ -8160,12 +8155,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="33" t="s">
         <v>42</v>
       </c>
@@ -8173,7 +8168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="31" t="s">
         <v>44</v>
       </c>
@@ -8181,7 +8176,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="31" t="s">
         <v>45</v>
       </c>
@@ -8189,7 +8184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="31" t="s">
         <v>46</v>
       </c>
@@ -8197,7 +8192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="31" t="s">
         <v>49</v>
       </c>
@@ -8205,61 +8200,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B78" s="32"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="31" t="s">
         <v>48</v>
       </c>
       <c r="B79" s="32"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="31" t="s">
         <v>50</v>
       </c>
       <c r="B80" s="31"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B81" s="31"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B82" s="31"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="31" t="s">
         <v>53</v>
       </c>
       <c r="B83" s="31"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="31" t="s">
         <v>54</v>
       </c>
       <c r="B84" s="31"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B85" s="31"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B86" s="31"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="31" t="s">
         <v>57</v>
       </c>
@@ -8267,7 +8262,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" customHeight="1"/>
+    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="2"/>
@@ -8281,14 +8276,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV97"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
@@ -8302,7 +8295,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -8561,7 +8554,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8573,7 +8566,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -8604,12 +8597,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -8629,7 +8622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -8889,7 +8882,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -9149,7 +9142,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -9157,7 +9150,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -9413,7 +9406,7 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>93</v>
       </c>
@@ -9421,7 +9414,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -9677,9 +9670,9 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -9937,7 +9930,7 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="26" customFormat="1">
+    <row r="12" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>74</v>
       </c>
@@ -9951,7 +9944,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:256" s="26" customFormat="1">
+    <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
         <v>94</v>
       </c>
@@ -10001,7 +9994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="26" customFormat="1">
+    <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>98</v>
       </c>
@@ -10051,7 +10044,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="26" customFormat="1">
+    <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>95</v>
       </c>
@@ -10101,7 +10094,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5">
+    <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -10360,7 +10353,7 @@
       <c r="IT17" s="5"/>
       <c r="IU17" s="5"/>
     </row>
-    <row r="18" spans="1:255" ht="15.75" customHeight="1">
+    <row r="18" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
@@ -10369,7 +10362,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:255" ht="15">
+    <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>8</v>
       </c>
@@ -10383,7 +10376,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:255" ht="15">
+    <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="34">
         <v>1</v>
       </c>
@@ -10397,7 +10390,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5">
+    <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -10656,17 +10649,17 @@
       <c r="IT22" s="5"/>
       <c r="IU22" s="5"/>
     </row>
-    <row r="23" spans="1:255">
+    <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:255">
+    <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:255">
+    <row r="25" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>42</v>
       </c>
@@ -10674,49 +10667,49 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:255">
+    <row r="26" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="31"/>
     </row>
-    <row r="27" spans="1:255">
+    <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="31"/>
     </row>
-    <row r="28" spans="1:255">
+    <row r="28" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="31"/>
     </row>
-    <row r="29" spans="1:255">
+    <row r="29" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="35"/>
     </row>
-    <row r="30" spans="1:255">
+    <row r="30" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="32"/>
     </row>
-    <row r="31" spans="1:255">
+    <row r="31" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
         <v>82</v>
       </c>
       <c r="B31" s="32"/>
     </row>
-    <row r="32" spans="1:255">
+    <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="31"/>
     </row>
-    <row r="33" spans="1:256" s="1" customFormat="1">
+    <row r="33" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
         <v>84</v>
       </c>
@@ -10974,7 +10967,7 @@
       <c r="IU33" s="19"/>
       <c r="IV33" s="19"/>
     </row>
-    <row r="34" spans="1:256" s="1" customFormat="1">
+    <row r="34" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
         <v>85</v>
       </c>
@@ -11232,7 +11225,7 @@
       <c r="IU34" s="19"/>
       <c r="IV34" s="19"/>
     </row>
-    <row r="35" spans="1:256" s="1" customFormat="1">
+    <row r="35" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>86</v>
       </c>
@@ -11492,7 +11485,7 @@
       <c r="IU35" s="19"/>
       <c r="IV35" s="19"/>
     </row>
-    <row r="36" spans="1:256" s="1" customFormat="1">
+    <row r="36" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
         <v>87</v>
       </c>
@@ -11750,7 +11743,7 @@
       <c r="IU36" s="19"/>
       <c r="IV36" s="19"/>
     </row>
-    <row r="37" spans="1:256" s="1" customFormat="1">
+    <row r="37" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>88</v>
       </c>
@@ -12010,17 +12003,17 @@
       <c r="IU37" s="19"/>
       <c r="IV37" s="19"/>
     </row>
-    <row r="39" spans="1:256">
+    <row r="39" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:256">
+    <row r="40" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:256">
+    <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
         <v>42</v>
       </c>
@@ -12028,7 +12021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:256">
+    <row r="42" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
         <v>96</v>
       </c>
@@ -12036,7 +12029,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:256">
+    <row r="43" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>44</v>
       </c>
@@ -12044,7 +12037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:256">
+    <row r="44" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
         <v>45</v>
       </c>
@@ -12052,7 +12045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:256">
+    <row r="45" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>47</v>
       </c>
@@ -12060,10 +12053,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:256">
+    <row r="46" spans="1:256" x14ac:dyDescent="0.35">
       <c r="B46" s="45"/>
     </row>
-    <row r="47" spans="1:256" s="1" customFormat="1">
+    <row r="47" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>73</v>
       </c>
@@ -12320,7 +12313,7 @@
       <c r="IU47" s="19"/>
       <c r="IV47" s="19"/>
     </row>
-    <row r="48" spans="1:256" s="1" customFormat="1">
+    <row r="48" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>116</v>
       </c>
@@ -12577,7 +12570,7 @@
       <c r="IU48" s="19"/>
       <c r="IV48" s="19"/>
     </row>
-    <row r="49" spans="1:256" s="1" customFormat="1">
+    <row r="49" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="33" t="s">
         <v>42</v>
       </c>
@@ -12837,7 +12830,7 @@
       <c r="IU49" s="19"/>
       <c r="IV49" s="19"/>
     </row>
-    <row r="50" spans="1:256" s="1" customFormat="1">
+    <row r="50" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
         <v>44</v>
       </c>
@@ -13097,7 +13090,7 @@
       <c r="IU50" s="19"/>
       <c r="IV50" s="19"/>
     </row>
-    <row r="51" spans="1:256" s="1" customFormat="1">
+    <row r="51" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
         <v>45</v>
       </c>
@@ -13357,7 +13350,7 @@
       <c r="IU51" s="19"/>
       <c r="IV51" s="19"/>
     </row>
-    <row r="52" spans="1:256" s="1" customFormat="1">
+    <row r="52" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
         <v>46</v>
       </c>
@@ -13617,7 +13610,7 @@
       <c r="IU52" s="19"/>
       <c r="IV52" s="19"/>
     </row>
-    <row r="53" spans="1:256" s="1" customFormat="1">
+    <row r="53" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
         <v>49</v>
       </c>
@@ -13877,7 +13870,7 @@
       <c r="IU53" s="19"/>
       <c r="IV53" s="19"/>
     </row>
-    <row r="54" spans="1:256" s="1" customFormat="1">
+    <row r="54" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
         <v>47</v>
       </c>
@@ -14135,7 +14128,7 @@
       <c r="IU54" s="19"/>
       <c r="IV54" s="19"/>
     </row>
-    <row r="55" spans="1:256" s="1" customFormat="1">
+    <row r="55" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="31" t="s">
         <v>48</v>
       </c>
@@ -14393,7 +14386,7 @@
       <c r="IU55" s="19"/>
       <c r="IV55" s="19"/>
     </row>
-    <row r="56" spans="1:256" s="1" customFormat="1">
+    <row r="56" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
         <v>50</v>
       </c>
@@ -14651,7 +14644,7 @@
       <c r="IU56" s="19"/>
       <c r="IV56" s="19"/>
     </row>
-    <row r="57" spans="1:256" s="1" customFormat="1">
+    <row r="57" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
         <v>51</v>
       </c>
@@ -14909,7 +14902,7 @@
       <c r="IU57" s="19"/>
       <c r="IV57" s="19"/>
     </row>
-    <row r="58" spans="1:256" s="1" customFormat="1">
+    <row r="58" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
         <v>52</v>
       </c>
@@ -15167,7 +15160,7 @@
       <c r="IU58" s="19"/>
       <c r="IV58" s="19"/>
     </row>
-    <row r="59" spans="1:256" s="1" customFormat="1">
+    <row r="59" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
         <v>53</v>
       </c>
@@ -15425,7 +15418,7 @@
       <c r="IU59" s="19"/>
       <c r="IV59" s="19"/>
     </row>
-    <row r="60" spans="1:256" s="1" customFormat="1">
+    <row r="60" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
         <v>54</v>
       </c>
@@ -15683,7 +15676,7 @@
       <c r="IU60" s="19"/>
       <c r="IV60" s="19"/>
     </row>
-    <row r="61" spans="1:256" s="1" customFormat="1">
+    <row r="61" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
         <v>55</v>
       </c>
@@ -15941,7 +15934,7 @@
       <c r="IU61" s="19"/>
       <c r="IV61" s="19"/>
     </row>
-    <row r="62" spans="1:256" s="1" customFormat="1">
+    <row r="62" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
         <v>56</v>
       </c>
@@ -16199,7 +16192,7 @@
       <c r="IU62" s="19"/>
       <c r="IV62" s="19"/>
     </row>
-    <row r="63" spans="1:256" s="1" customFormat="1">
+    <row r="63" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
         <v>57</v>
       </c>
@@ -16459,7 +16452,7 @@
       <c r="IU63" s="19"/>
       <c r="IV63" s="19"/>
     </row>
-    <row r="65" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="65" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>126</v>
       </c>
@@ -16716,12 +16709,12 @@
       <c r="IU65" s="19"/>
       <c r="IV65" s="19"/>
     </row>
-    <row r="66" spans="1:256">
+    <row r="66" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:256" s="1" customFormat="1">
+    <row r="67" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="33" t="s">
         <v>42</v>
       </c>
@@ -16981,7 +16974,7 @@
       <c r="IU67" s="19"/>
       <c r="IV67" s="19"/>
     </row>
-    <row r="68" spans="1:256" s="1" customFormat="1">
+    <row r="68" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="31" t="s">
         <v>44</v>
       </c>
@@ -17241,7 +17234,7 @@
       <c r="IU68" s="19"/>
       <c r="IV68" s="19"/>
     </row>
-    <row r="69" spans="1:256" s="1" customFormat="1">
+    <row r="69" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="31" t="s">
         <v>45</v>
       </c>
@@ -17501,7 +17494,7 @@
       <c r="IU69" s="19"/>
       <c r="IV69" s="19"/>
     </row>
-    <row r="70" spans="1:256" s="1" customFormat="1">
+    <row r="70" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="31" t="s">
         <v>46</v>
       </c>
@@ -17761,7 +17754,7 @@
       <c r="IU70" s="19"/>
       <c r="IV70" s="19"/>
     </row>
-    <row r="71" spans="1:256" s="1" customFormat="1">
+    <row r="71" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="31" t="s">
         <v>49</v>
       </c>
@@ -18021,7 +18014,7 @@
       <c r="IU71" s="19"/>
       <c r="IV71" s="19"/>
     </row>
-    <row r="72" spans="1:256" s="1" customFormat="1">
+    <row r="72" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="31" t="s">
         <v>47</v>
       </c>
@@ -18279,7 +18272,7 @@
       <c r="IU72" s="19"/>
       <c r="IV72" s="19"/>
     </row>
-    <row r="73" spans="1:256" s="1" customFormat="1">
+    <row r="73" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="31" t="s">
         <v>48</v>
       </c>
@@ -18537,7 +18530,7 @@
       <c r="IU73" s="19"/>
       <c r="IV73" s="19"/>
     </row>
-    <row r="74" spans="1:256" s="1" customFormat="1">
+    <row r="74" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="31" t="s">
         <v>50</v>
       </c>
@@ -18795,7 +18788,7 @@
       <c r="IU74" s="19"/>
       <c r="IV74" s="19"/>
     </row>
-    <row r="75" spans="1:256" s="1" customFormat="1">
+    <row r="75" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="31" t="s">
         <v>51</v>
       </c>
@@ -19053,7 +19046,7 @@
       <c r="IU75" s="19"/>
       <c r="IV75" s="19"/>
     </row>
-    <row r="76" spans="1:256" s="1" customFormat="1">
+    <row r="76" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="31" t="s">
         <v>52</v>
       </c>
@@ -19311,7 +19304,7 @@
       <c r="IU76" s="19"/>
       <c r="IV76" s="19"/>
     </row>
-    <row r="77" spans="1:256" s="1" customFormat="1">
+    <row r="77" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="31" t="s">
         <v>53</v>
       </c>
@@ -19569,7 +19562,7 @@
       <c r="IU77" s="19"/>
       <c r="IV77" s="19"/>
     </row>
-    <row r="78" spans="1:256" s="1" customFormat="1">
+    <row r="78" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="31" t="s">
         <v>54</v>
       </c>
@@ -19827,7 +19820,7 @@
       <c r="IU78" s="19"/>
       <c r="IV78" s="19"/>
     </row>
-    <row r="79" spans="1:256" s="1" customFormat="1">
+    <row r="79" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="31" t="s">
         <v>55</v>
       </c>
@@ -20085,7 +20078,7 @@
       <c r="IU79" s="19"/>
       <c r="IV79" s="19"/>
     </row>
-    <row r="80" spans="1:256" s="1" customFormat="1">
+    <row r="80" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="31" t="s">
         <v>56</v>
       </c>
@@ -20343,7 +20336,7 @@
       <c r="IU80" s="19"/>
       <c r="IV80" s="19"/>
     </row>
-    <row r="81" spans="1:256" s="1" customFormat="1">
+    <row r="81" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="31" t="s">
         <v>57</v>
       </c>
@@ -20603,7 +20596,7 @@
       <c r="IU81" s="19"/>
       <c r="IV81" s="19"/>
     </row>
-    <row r="83" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="83" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>128</v>
       </c>
@@ -20860,12 +20853,12 @@
       <c r="IU83" s="19"/>
       <c r="IV83" s="19"/>
     </row>
-    <row r="84" spans="1:256">
+    <row r="84" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:256">
+    <row r="85" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A85" s="33" t="s">
         <v>42</v>
       </c>
@@ -20873,19 +20866,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:256">
+    <row r="86" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A86" s="31" t="s">
         <v>49</v>
       </c>
       <c r="B86" s="31"/>
     </row>
-    <row r="87" spans="1:256">
+    <row r="87" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A87" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B87" s="31"/>
     </row>
-    <row r="88" spans="1:256">
+    <row r="88" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A88" s="31" t="s">
         <v>44</v>
       </c>
@@ -20893,31 +20886,31 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:256">
+    <row r="89" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A89" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B89" s="35"/>
     </row>
-    <row r="90" spans="1:256">
+    <row r="90" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A90" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B90" s="32"/>
     </row>
-    <row r="91" spans="1:256">
+    <row r="91" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A91" s="31" t="s">
         <v>82</v>
       </c>
       <c r="B91" s="32"/>
     </row>
-    <row r="92" spans="1:256">
+    <row r="92" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A92" s="31" t="s">
         <v>83</v>
       </c>
       <c r="B92" s="31"/>
     </row>
-    <row r="93" spans="1:256" s="1" customFormat="1">
+    <row r="93" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="31" t="s">
         <v>84</v>
       </c>
@@ -21175,7 +21168,7 @@
       <c r="IU93" s="19"/>
       <c r="IV93" s="19"/>
     </row>
-    <row r="94" spans="1:256" s="1" customFormat="1">
+    <row r="94" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="31" t="s">
         <v>85</v>
       </c>
@@ -21433,7 +21426,7 @@
       <c r="IU94" s="19"/>
       <c r="IV94" s="19"/>
     </row>
-    <row r="95" spans="1:256" s="1" customFormat="1">
+    <row r="95" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="31" t="s">
         <v>86</v>
       </c>
@@ -21693,7 +21686,7 @@
       <c r="IU95" s="19"/>
       <c r="IV95" s="19"/>
     </row>
-    <row r="96" spans="1:256" s="1" customFormat="1">
+    <row r="96" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="31" t="s">
         <v>87</v>
       </c>
@@ -21951,7 +21944,7 @@
       <c r="IU96" s="19"/>
       <c r="IV96" s="19"/>
     </row>
-    <row r="97" spans="1:256" s="1" customFormat="1">
+    <row r="97" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="31" t="s">
         <v>88</v>
       </c>
@@ -22224,14 +22217,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
@@ -22245,7 +22236,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -22504,7 +22495,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -22516,7 +22507,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -22547,12 +22538,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -22572,7 +22563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -22832,7 +22823,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -23092,7 +23083,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -23100,7 +23091,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -23356,7 +23347,7 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>93</v>
       </c>
@@ -23364,7 +23355,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -23620,9 +23611,9 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -23880,7 +23871,7 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="13" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="13" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -24139,7 +24130,7 @@
       <c r="IT13" s="5"/>
       <c r="IU13" s="5"/>
     </row>
-    <row r="14" spans="1:256" ht="15.75" customHeight="1">
+    <row r="14" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>3</v>
       </c>
@@ -24148,7 +24139,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:256" ht="15">
+    <row r="15" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
         <v>8</v>
       </c>
@@ -24162,7 +24153,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:256" ht="15">
+    <row r="16" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="34">
         <v>1</v>
       </c>
@@ -24172,7 +24163,7 @@
       <c r="C16" s="46"/>
       <c r="D16" s="47"/>
     </row>
-    <row r="18" spans="1:255" s="6" customFormat="1" ht="22.5">
+    <row r="18" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -24444,14 +24435,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
@@ -24462,7 +24451,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -24721,7 +24710,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -24733,7 +24722,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -24764,12 +24753,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -24789,7 +24778,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -25049,7 +25038,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -25309,7 +25298,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -25571,7 +25560,7 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>97</v>
       </c>
@@ -25833,7 +25822,7 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -26091,7 +26080,7 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="26" customFormat="1">
+    <row r="12" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>74</v>
       </c>
@@ -26105,7 +26094,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:256" s="26" customFormat="1">
+    <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
         <v>94</v>
       </c>
@@ -26155,7 +26144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="26" customFormat="1">
+    <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>98</v>
       </c>
@@ -26205,7 +26194,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="26" customFormat="1">
+    <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>95</v>
       </c>
@@ -26255,7 +26244,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -26514,7 +26503,7 @@
       <c r="IT17" s="5"/>
       <c r="IU17" s="5"/>
     </row>
-    <row r="18" spans="1:256" ht="15.75" customHeight="1">
+    <row r="18" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
@@ -26523,7 +26512,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:256" ht="15">
+    <row r="19" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>8</v>
       </c>
@@ -26546,7 +26535,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:256" ht="15">
+    <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>1</v>
       </c>
@@ -26569,7 +26558,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -26828,7 +26817,7 @@
       <c r="IT22" s="5"/>
       <c r="IU22" s="5"/>
     </row>
-    <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>126</v>
       </c>
@@ -27085,12 +27074,12 @@
       <c r="IU23" s="19"/>
       <c r="IV23" s="19"/>
     </row>
-    <row r="24" spans="1:256">
+    <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:256" s="1" customFormat="1">
+    <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>42</v>
       </c>
@@ -27350,7 +27339,7 @@
       <c r="IU25" s="19"/>
       <c r="IV25" s="19"/>
     </row>
-    <row r="26" spans="1:256" s="1" customFormat="1">
+    <row r="26" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>44</v>
       </c>
@@ -27610,7 +27599,7 @@
       <c r="IU26" s="19"/>
       <c r="IV26" s="19"/>
     </row>
-    <row r="27" spans="1:256" s="1" customFormat="1">
+    <row r="27" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>45</v>
       </c>
@@ -27870,7 +27859,7 @@
       <c r="IU27" s="19"/>
       <c r="IV27" s="19"/>
     </row>
-    <row r="28" spans="1:256" s="1" customFormat="1">
+    <row r="28" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>46</v>
       </c>
@@ -28130,7 +28119,7 @@
       <c r="IU28" s="19"/>
       <c r="IV28" s="19"/>
     </row>
-    <row r="29" spans="1:256" s="1" customFormat="1">
+    <row r="29" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>49</v>
       </c>
@@ -28390,7 +28379,7 @@
       <c r="IU29" s="19"/>
       <c r="IV29" s="19"/>
     </row>
-    <row r="30" spans="1:256" s="1" customFormat="1">
+    <row r="30" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>47</v>
       </c>
@@ -28648,7 +28637,7 @@
       <c r="IU30" s="19"/>
       <c r="IV30" s="19"/>
     </row>
-    <row r="31" spans="1:256" s="1" customFormat="1">
+    <row r="31" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
         <v>48</v>
       </c>
@@ -28906,7 +28895,7 @@
       <c r="IU31" s="19"/>
       <c r="IV31" s="19"/>
     </row>
-    <row r="32" spans="1:256" s="1" customFormat="1">
+    <row r="32" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>50</v>
       </c>
@@ -29164,7 +29153,7 @@
       <c r="IU32" s="19"/>
       <c r="IV32" s="19"/>
     </row>
-    <row r="33" spans="1:256" s="1" customFormat="1">
+    <row r="33" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
         <v>51</v>
       </c>
@@ -29422,7 +29411,7 @@
       <c r="IU33" s="19"/>
       <c r="IV33" s="19"/>
     </row>
-    <row r="34" spans="1:256" s="1" customFormat="1">
+    <row r="34" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
         <v>52</v>
       </c>
@@ -29680,7 +29669,7 @@
       <c r="IU34" s="19"/>
       <c r="IV34" s="19"/>
     </row>
-    <row r="35" spans="1:256" s="1" customFormat="1">
+    <row r="35" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>53</v>
       </c>
@@ -29938,7 +29927,7 @@
       <c r="IU35" s="19"/>
       <c r="IV35" s="19"/>
     </row>
-    <row r="36" spans="1:256" s="1" customFormat="1">
+    <row r="36" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
         <v>54</v>
       </c>
@@ -30196,7 +30185,7 @@
       <c r="IU36" s="19"/>
       <c r="IV36" s="19"/>
     </row>
-    <row r="37" spans="1:256" s="1" customFormat="1">
+    <row r="37" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>55</v>
       </c>
@@ -30454,7 +30443,7 @@
       <c r="IU37" s="19"/>
       <c r="IV37" s="19"/>
     </row>
-    <row r="38" spans="1:256" s="1" customFormat="1">
+    <row r="38" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
         <v>56</v>
       </c>
@@ -30712,7 +30701,7 @@
       <c r="IU38" s="19"/>
       <c r="IV38" s="19"/>
     </row>
-    <row r="39" spans="1:256" s="1" customFormat="1">
+    <row r="39" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
         <v>57</v>
       </c>
@@ -30972,12 +30961,12 @@
       <c r="IU39" s="19"/>
       <c r="IV39" s="19"/>
     </row>
-    <row r="41" spans="1:256">
+    <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:256" s="1" customFormat="1">
+    <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="33" t="s">
         <v>42</v>
       </c>
@@ -31237,7 +31226,7 @@
       <c r="IU42" s="19"/>
       <c r="IV42" s="19"/>
     </row>
-    <row r="43" spans="1:256" s="1" customFormat="1">
+    <row r="43" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>44</v>
       </c>
@@ -31497,7 +31486,7 @@
       <c r="IU43" s="19"/>
       <c r="IV43" s="19"/>
     </row>
-    <row r="44" spans="1:256" s="1" customFormat="1">
+    <row r="44" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
         <v>45</v>
       </c>
@@ -31757,7 +31746,7 @@
       <c r="IU44" s="19"/>
       <c r="IV44" s="19"/>
     </row>
-    <row r="45" spans="1:256" s="1" customFormat="1">
+    <row r="45" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>46</v>
       </c>
@@ -32017,7 +32006,7 @@
       <c r="IU45" s="19"/>
       <c r="IV45" s="19"/>
     </row>
-    <row r="46" spans="1:256" s="1" customFormat="1">
+    <row r="46" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
         <v>49</v>
       </c>
@@ -32277,7 +32266,7 @@
       <c r="IU46" s="19"/>
       <c r="IV46" s="19"/>
     </row>
-    <row r="47" spans="1:256" s="1" customFormat="1">
+    <row r="47" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
         <v>47</v>
       </c>
@@ -32535,7 +32524,7 @@
       <c r="IU47" s="19"/>
       <c r="IV47" s="19"/>
     </row>
-    <row r="48" spans="1:256" s="1" customFormat="1">
+    <row r="48" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31" t="s">
         <v>48</v>
       </c>
@@ -32793,7 +32782,7 @@
       <c r="IU48" s="19"/>
       <c r="IV48" s="19"/>
     </row>
-    <row r="49" spans="1:256" s="1" customFormat="1">
+    <row r="49" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
         <v>50</v>
       </c>
@@ -33051,7 +33040,7 @@
       <c r="IU49" s="19"/>
       <c r="IV49" s="19"/>
     </row>
-    <row r="50" spans="1:256" s="1" customFormat="1">
+    <row r="50" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
         <v>51</v>
       </c>
@@ -33309,7 +33298,7 @@
       <c r="IU50" s="19"/>
       <c r="IV50" s="19"/>
     </row>
-    <row r="51" spans="1:256" s="1" customFormat="1">
+    <row r="51" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
         <v>52</v>
       </c>
@@ -33567,7 +33556,7 @@
       <c r="IU51" s="19"/>
       <c r="IV51" s="19"/>
     </row>
-    <row r="52" spans="1:256" s="1" customFormat="1">
+    <row r="52" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
         <v>53</v>
       </c>
@@ -33825,7 +33814,7 @@
       <c r="IU52" s="19"/>
       <c r="IV52" s="19"/>
     </row>
-    <row r="53" spans="1:256" s="1" customFormat="1">
+    <row r="53" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
         <v>54</v>
       </c>
@@ -34083,7 +34072,7 @@
       <c r="IU53" s="19"/>
       <c r="IV53" s="19"/>
     </row>
-    <row r="54" spans="1:256" s="1" customFormat="1">
+    <row r="54" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
         <v>55</v>
       </c>
@@ -34341,7 +34330,7 @@
       <c r="IU54" s="19"/>
       <c r="IV54" s="19"/>
     </row>
-    <row r="55" spans="1:256" s="1" customFormat="1">
+    <row r="55" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="31" t="s">
         <v>56</v>
       </c>
@@ -34599,7 +34588,7 @@
       <c r="IU55" s="19"/>
       <c r="IV55" s="19"/>
     </row>
-    <row r="56" spans="1:256" s="1" customFormat="1">
+    <row r="56" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
         <v>57</v>
       </c>
@@ -34872,14 +34861,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
@@ -34891,7 +34878,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -35150,7 +35137,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -35162,7 +35149,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -35193,12 +35180,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -35220,7 +35207,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -35480,7 +35467,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -35740,7 +35727,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -36002,7 +35989,7 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>97</v>
       </c>
@@ -36264,7 +36251,7 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -36522,7 +36509,7 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="26" customFormat="1">
+    <row r="12" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>74</v>
       </c>
@@ -36536,7 +36523,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:256" s="26" customFormat="1">
+    <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
         <v>94</v>
       </c>
@@ -36586,7 +36573,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="26" customFormat="1">
+    <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>98</v>
       </c>
@@ -36636,7 +36623,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="26" customFormat="1">
+    <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>95</v>
       </c>
@@ -36686,7 +36673,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5">
+    <row r="17" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -36945,7 +36932,7 @@
       <c r="IT17" s="5"/>
       <c r="IU17" s="5"/>
     </row>
-    <row r="18" spans="1:255" ht="15.75" customHeight="1">
+    <row r="18" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
@@ -36954,7 +36941,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:255" ht="15">
+    <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>8</v>
       </c>
@@ -36977,7 +36964,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:255" ht="15">
+    <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>1</v>
       </c>
@@ -36998,7 +36985,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5">
+    <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -37270,14 +37257,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
@@ -37288,7 +37273,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -37547,7 +37532,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -37559,7 +37544,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -37590,12 +37575,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -37615,7 +37600,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -37875,7 +37860,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -38135,7 +38120,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -38397,7 +38382,7 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>146</v>
       </c>
@@ -38659,7 +38644,7 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -38917,7 +38902,7 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="26" customFormat="1">
+    <row r="12" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>74</v>
       </c>
@@ -38931,7 +38916,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:256" s="26" customFormat="1">
+    <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
         <v>94</v>
       </c>
@@ -38981,7 +38966,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="26" customFormat="1">
+    <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>98</v>
       </c>
@@ -39031,7 +39016,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="26" customFormat="1">
+    <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>95</v>
       </c>
@@ -39081,7 +39066,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -39340,7 +39325,7 @@
       <c r="IT17" s="5"/>
       <c r="IU17" s="5"/>
     </row>
-    <row r="18" spans="1:256" ht="15.75" customHeight="1">
+    <row r="18" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
@@ -39349,7 +39334,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:256" ht="15">
+    <row r="19" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>8</v>
       </c>
@@ -39357,7 +39342,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:256" ht="15">
+    <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>1</v>
       </c>
@@ -39365,7 +39350,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -39624,7 +39609,7 @@
       <c r="IT22" s="5"/>
       <c r="IU22" s="5"/>
     </row>
-    <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>126</v>
       </c>
@@ -39881,12 +39866,12 @@
       <c r="IU23" s="19"/>
       <c r="IV23" s="19"/>
     </row>
-    <row r="24" spans="1:256">
+    <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:256" s="1" customFormat="1">
+    <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>42</v>
       </c>
@@ -40146,7 +40131,7 @@
       <c r="IU25" s="19"/>
       <c r="IV25" s="19"/>
     </row>
-    <row r="26" spans="1:256" s="1" customFormat="1">
+    <row r="26" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>44</v>
       </c>
@@ -40406,7 +40391,7 @@
       <c r="IU26" s="19"/>
       <c r="IV26" s="19"/>
     </row>
-    <row r="27" spans="1:256" s="1" customFormat="1">
+    <row r="27" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>45</v>
       </c>
@@ -40666,7 +40651,7 @@
       <c r="IU27" s="19"/>
       <c r="IV27" s="19"/>
     </row>
-    <row r="28" spans="1:256" s="1" customFormat="1">
+    <row r="28" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>46</v>
       </c>
@@ -40926,7 +40911,7 @@
       <c r="IU28" s="19"/>
       <c r="IV28" s="19"/>
     </row>
-    <row r="29" spans="1:256" s="1" customFormat="1">
+    <row r="29" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
         <v>49</v>
       </c>
@@ -41186,7 +41171,7 @@
       <c r="IU29" s="19"/>
       <c r="IV29" s="19"/>
     </row>
-    <row r="30" spans="1:256" s="1" customFormat="1">
+    <row r="30" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>47</v>
       </c>
@@ -41444,7 +41429,7 @@
       <c r="IU30" s="19"/>
       <c r="IV30" s="19"/>
     </row>
-    <row r="31" spans="1:256" s="1" customFormat="1">
+    <row r="31" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31" t="s">
         <v>48</v>
       </c>
@@ -41702,7 +41687,7 @@
       <c r="IU31" s="19"/>
       <c r="IV31" s="19"/>
     </row>
-    <row r="32" spans="1:256" s="1" customFormat="1">
+    <row r="32" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>50</v>
       </c>
@@ -41960,7 +41945,7 @@
       <c r="IU32" s="19"/>
       <c r="IV32" s="19"/>
     </row>
-    <row r="33" spans="1:256" s="1" customFormat="1">
+    <row r="33" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
         <v>51</v>
       </c>
@@ -42218,7 +42203,7 @@
       <c r="IU33" s="19"/>
       <c r="IV33" s="19"/>
     </row>
-    <row r="34" spans="1:256" s="1" customFormat="1">
+    <row r="34" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31" t="s">
         <v>52</v>
       </c>
@@ -42476,7 +42461,7 @@
       <c r="IU34" s="19"/>
       <c r="IV34" s="19"/>
     </row>
-    <row r="35" spans="1:256" s="1" customFormat="1">
+    <row r="35" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>53</v>
       </c>
@@ -42734,7 +42719,7 @@
       <c r="IU35" s="19"/>
       <c r="IV35" s="19"/>
     </row>
-    <row r="36" spans="1:256" s="1" customFormat="1">
+    <row r="36" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
         <v>54</v>
       </c>
@@ -42992,7 +42977,7 @@
       <c r="IU36" s="19"/>
       <c r="IV36" s="19"/>
     </row>
-    <row r="37" spans="1:256" s="1" customFormat="1">
+    <row r="37" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>55</v>
       </c>
@@ -43250,7 +43235,7 @@
       <c r="IU37" s="19"/>
       <c r="IV37" s="19"/>
     </row>
-    <row r="38" spans="1:256" s="1" customFormat="1">
+    <row r="38" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
         <v>56</v>
       </c>
@@ -43508,7 +43493,7 @@
       <c r="IU38" s="19"/>
       <c r="IV38" s="19"/>
     </row>
-    <row r="39" spans="1:256" s="1" customFormat="1">
+    <row r="39" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
         <v>57</v>
       </c>
@@ -43768,12 +43753,12 @@
       <c r="IU39" s="19"/>
       <c r="IV39" s="19"/>
     </row>
-    <row r="41" spans="1:256">
+    <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:256" s="1" customFormat="1">
+    <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="33" t="s">
         <v>42</v>
       </c>
@@ -44033,7 +44018,7 @@
       <c r="IU42" s="19"/>
       <c r="IV42" s="19"/>
     </row>
-    <row r="43" spans="1:256" s="1" customFormat="1">
+    <row r="43" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>49</v>
       </c>
@@ -44293,7 +44278,7 @@
       <c r="IU43" s="19"/>
       <c r="IV43" s="19"/>
     </row>
-    <row r="44" spans="1:256" s="1" customFormat="1">
+    <row r="44" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
         <v>81</v>
       </c>
@@ -44551,7 +44536,7 @@
       <c r="IU44" s="19"/>
       <c r="IV44" s="19"/>
     </row>
-    <row r="45" spans="1:256" s="1" customFormat="1">
+    <row r="45" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>44</v>
       </c>
@@ -44811,7 +44796,7 @@
       <c r="IU45" s="19"/>
       <c r="IV45" s="19"/>
     </row>
-    <row r="46" spans="1:256" s="1" customFormat="1">
+    <row r="46" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
         <v>45</v>
       </c>
@@ -45069,7 +45054,7 @@
       <c r="IU46" s="19"/>
       <c r="IV46" s="19"/>
     </row>
-    <row r="47" spans="1:256" s="1" customFormat="1">
+    <row r="47" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
         <v>46</v>
       </c>
@@ -45327,7 +45312,7 @@
       <c r="IU47" s="19"/>
       <c r="IV47" s="19"/>
     </row>
-    <row r="48" spans="1:256" s="1" customFormat="1">
+    <row r="48" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31" t="s">
         <v>82</v>
       </c>
@@ -45585,7 +45570,7 @@
       <c r="IU48" s="19"/>
       <c r="IV48" s="19"/>
     </row>
-    <row r="49" spans="1:256" s="1" customFormat="1">
+    <row r="49" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
         <v>83</v>
       </c>
@@ -45843,7 +45828,7 @@
       <c r="IU49" s="19"/>
       <c r="IV49" s="19"/>
     </row>
-    <row r="50" spans="1:256" s="1" customFormat="1">
+    <row r="50" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
         <v>84</v>
       </c>
@@ -46101,7 +46086,7 @@
       <c r="IU50" s="19"/>
       <c r="IV50" s="19"/>
     </row>
-    <row r="51" spans="1:256" s="1" customFormat="1">
+    <row r="51" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
         <v>85</v>
       </c>
@@ -46359,7 +46344,7 @@
       <c r="IU51" s="19"/>
       <c r="IV51" s="19"/>
     </row>
-    <row r="52" spans="1:256" s="1" customFormat="1">
+    <row r="52" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
         <v>86</v>
       </c>
@@ -46619,7 +46604,7 @@
       <c r="IU52" s="19"/>
       <c r="IV52" s="19"/>
     </row>
-    <row r="53" spans="1:256" s="1" customFormat="1">
+    <row r="53" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
         <v>87</v>
       </c>
@@ -46877,7 +46862,7 @@
       <c r="IU53" s="19"/>
       <c r="IV53" s="19"/>
     </row>
-    <row r="54" spans="1:256" s="1" customFormat="1">
+    <row r="54" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
         <v>88</v>
       </c>
@@ -47150,14 +47135,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
@@ -47168,7 +47153,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -47427,7 +47412,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -47439,7 +47424,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -47470,12 +47455,12 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -47487,15 +47472,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -47755,7 +47740,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -48015,7 +48000,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -48277,9 +48262,9 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -48539,7 +48524,7 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -48797,7 +48782,7 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="12" spans="1:256" s="26" customFormat="1">
+    <row r="12" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>74</v>
       </c>
@@ -48811,7 +48796,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:256" s="26" customFormat="1">
+    <row r="13" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
         <v>94</v>
       </c>
@@ -48861,7 +48846,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="26" customFormat="1">
+    <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>141</v>
       </c>
@@ -48911,7 +48896,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="26" customFormat="1">
+    <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>139</v>
       </c>
@@ -48961,7 +48946,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="17" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -49220,7 +49205,7 @@
       <c r="IT17" s="5"/>
       <c r="IU17" s="5"/>
     </row>
-    <row r="18" spans="1:256" ht="15.75" customHeight="1">
+    <row r="18" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
@@ -49229,7 +49214,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:256" ht="15">
+    <row r="19" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
         <v>8</v>
       </c>
@@ -49237,7 +49222,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:256" ht="15">
+    <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>1</v>
       </c>
@@ -49245,7 +49230,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -49504,9 +49489,9 @@
       <c r="IT22" s="5"/>
       <c r="IU22" s="5"/>
     </row>
-    <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -49761,7 +49746,7 @@
       <c r="IU23" s="19"/>
       <c r="IV23" s="19"/>
     </row>
-    <row r="24" spans="1:256" s="26" customFormat="1">
+    <row r="24" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
         <v>74</v>
       </c>
@@ -49775,7 +49760,7 @@
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
     </row>
-    <row r="25" spans="1:256" s="26" customFormat="1">
+    <row r="25" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
         <v>94</v>
       </c>
@@ -49825,12 +49810,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:256" s="26" customFormat="1">
+    <row r="26" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
         <v>141</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>40</v>
@@ -49875,7 +49860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:256" s="26" customFormat="1">
+    <row r="27" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
         <v>139</v>
       </c>
@@ -49938,14 +49923,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
@@ -49956,7 +49939,7 @@
     <col min="10" max="16384" width="11.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -50215,7 +50198,7 @@
       <c r="IT1" s="5"/>
       <c r="IU1" s="5"/>
     </row>
-    <row r="2" spans="1:256" s="8" customFormat="1">
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -50227,7 +50210,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -50258,18 +50241,18 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:256" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
@@ -50278,14 +50261,14 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5">
+    <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -50545,7 +50528,7 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -50805,7 +50788,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
@@ -51067,9 +51050,9 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -51329,7 +51312,7 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5">
+    <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -51587,7 +51570,7 @@
       <c r="IU11" s="17"/>
       <c r="IV11" s="17"/>
     </row>
-    <row r="13" spans="1:256" s="6" customFormat="1" ht="22.5">
+    <row r="13" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -51846,7 +51829,7 @@
       <c r="IT13" s="5"/>
       <c r="IU13" s="5"/>
     </row>
-    <row r="14" spans="1:256" ht="15.75" customHeight="1">
+    <row r="14" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>3</v>
       </c>
@@ -51855,7 +51838,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:256" ht="15">
+    <row r="15" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
         <v>8</v>
       </c>
@@ -51863,7 +51846,7 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:256" ht="15">
+    <row r="16" spans="1:256" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
         <v>1</v>
       </c>
@@ -51871,7 +51854,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="18" spans="1:255" s="6" customFormat="1" ht="22.5">
+    <row r="18" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>

--- a/nablarch-handson-app-web/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
+++ b/nablarch-handson-app-web/src/test/java/com/nablarch/example/app/web/action/ProjectBulkActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="23565" windowHeight="5190" tabRatio="766" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="23565" windowHeight="5190" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="203">
   <si>
     <t>LIST_MAP=user</t>
     <phoneticPr fontId="2"/>
@@ -639,10 +639,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>// 検索結果がセッションに格納されていること</t>
     <rPh sb="3" eb="5">
       <t>ケンサク</t>
@@ -1107,7 +1103,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>302</t>
+    <t>303</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1789,7 +1785,7 @@
     </row>
     <row r="3" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1797,64 +1793,64 @@
     </row>
     <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="C4" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="D4" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="E4" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="F4" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="G4" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="H4" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="I4" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>186</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="E5" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="F5" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="G5" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="H5" s="42" t="s">
         <v>194</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>195</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -1862,7 +1858,7 @@
     </row>
     <row r="7" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1870,25 +1866,25 @@
     </row>
     <row r="8" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="39" t="s">
         <v>198</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>199</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="31" t="s">
         <v>201</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>202</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2352,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -2369,7 +2365,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -3156,7 +3152,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -3961,7 +3957,7 @@
     </row>
     <row r="18" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -4233,7 +4229,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV88"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4556,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -5104,7 +5102,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -5368,7 +5366,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -5626,7 +5624,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -7171,9 +7169,7 @@
       <c r="A35" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="31" t="s">
-        <v>124</v>
-      </c>
+      <c r="B35" s="31"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
@@ -8602,7 +8598,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -9150,7 +9146,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -9414,7 +9410,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -9672,7 +9668,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -10387,7 +10383,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -10656,7 +10652,7 @@
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:255" x14ac:dyDescent="0.35">
@@ -11230,7 +11226,7 @@
         <v>86</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -16454,7 +16450,7 @@
     </row>
     <row r="65" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
@@ -16711,7 +16707,7 @@
     </row>
     <row r="66" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -20598,7 +20594,7 @@
     </row>
     <row r="83" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
@@ -20855,7 +20851,7 @@
     </row>
     <row r="84" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:256" x14ac:dyDescent="0.35">
@@ -22543,7 +22539,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -22556,7 +22552,7 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
@@ -23091,7 +23087,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -23355,7 +23351,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -23613,7 +23609,7 @@
     </row>
     <row r="11" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="17"/>
@@ -24758,7 +24754,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -24775,7 +24771,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -26517,22 +26513,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="G19" s="30" t="s">
         <v>143</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="15" x14ac:dyDescent="0.35">
@@ -26540,22 +26536,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>139</v>
-      </c>
       <c r="F20" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -26819,7 +26815,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -27076,7 +27072,7 @@
     </row>
     <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -27344,7 +27340,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -30963,7 +30959,7 @@
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -31231,7 +31227,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
@@ -35185,7 +35181,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -35200,11 +35196,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -36946,22 +36942,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="G19" s="30" t="s">
         <v>143</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -36970,19 +36966,19 @@
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>139</v>
-      </c>
       <c r="F20" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -37580,7 +37576,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -37597,7 +37593,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -38384,7 +38380,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -39611,7 +39607,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -39868,7 +39864,7 @@
     </row>
     <row r="24" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -40136,7 +40132,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -43755,7 +43751,7 @@
     </row>
     <row r="41" spans="1:256" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -44541,7 +44537,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
@@ -46349,7 +46345,7 @@
         <v>86</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
@@ -47138,8 +47134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -47460,7 +47456,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
@@ -47472,12 +47468,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -48264,7 +48260,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
@@ -48848,7 +48844,7 @@
     </row>
     <row r="14" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>39</v>
@@ -48898,7 +48894,7 @@
     </row>
     <row r="15" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>101</v>
@@ -49491,7 +49487,7 @@
     </row>
     <row r="23" spans="1:256" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -49812,10 +49808,10 @@
     </row>
     <row r="26" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>40</v>
@@ -49862,10 +49858,10 @@
     </row>
     <row r="27" spans="1:256" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>40</v>
@@ -50246,13 +50242,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>1</v>
@@ -50261,11 +50257,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -51052,7 +51048,7 @@
     </row>
     <row r="10" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>22</v>
